--- a/data/fraternity_populations_foia/LSU/LSU-all fraternities.xlsx
+++ b/data/fraternity_populations_foia/LSU/LSU-all fraternities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/Fraternities and Sexual Assault/Data/Fraternity Populations:GPA FOIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeltopper/Desktop/fraternities/data/fraternity_populations_foia/LSU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C20D1E7-E881-6C42-9E3A-2891BFC15F8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4834FE3-FC8E-F04E-9E29-0C679E2B095B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" activeTab="10" xr2:uid="{41D9D3E3-081D-4942-ABE3-A33B40EFE28B}"/>
+    <workbookView xWindow="41740" yWindow="1860" windowWidth="28040" windowHeight="17440" activeTab="10" xr2:uid="{41D9D3E3-081D-4942-ABE3-A33B40EFE28B}"/>
   </bookViews>
   <sheets>
     <sheet name="fall 2014" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="spring 2019" sheetId="11" r:id="rId10"/>
     <sheet name="fall 2019" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,6 +37,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="470">
   <si>
     <t>Chapter</t>
   </si>
@@ -766,9 +768,6 @@
     <t>55 </t>
   </si>
   <si>
-    <t> 55</t>
-  </si>
-  <si>
     <t>0 </t>
   </si>
   <si>
@@ -811,9 +810,6 @@
     <t>66 </t>
   </si>
   <si>
-    <t>75 </t>
-  </si>
-  <si>
     <t>3.633 </t>
   </si>
   <si>
@@ -841,9 +837,6 @@
     <t>56 </t>
   </si>
   <si>
-    <t>59 </t>
-  </si>
-  <si>
     <t>12 </t>
   </si>
   <si>
@@ -1093,9 +1086,6 @@
     <t> 143</t>
   </si>
   <si>
-    <t>143 </t>
-  </si>
-  <si>
     <t> 2.893</t>
   </si>
   <si>
@@ -1120,9 +1110,6 @@
     <t>52 </t>
   </si>
   <si>
-    <t>93 </t>
-  </si>
-  <si>
     <t>8 </t>
   </si>
   <si>
@@ -1159,9 +1146,6 @@
     <t>50 </t>
   </si>
   <si>
-    <t>73 </t>
-  </si>
-  <si>
     <t>22 </t>
   </si>
   <si>
@@ -1198,9 +1182,6 @@
     <t> 19</t>
   </si>
   <si>
-    <t>74 </t>
-  </si>
-  <si>
     <t>3.311 </t>
   </si>
   <si>
@@ -1267,9 +1248,6 @@
     <t>84 </t>
   </si>
   <si>
-    <t>144 </t>
-  </si>
-  <si>
     <t>2.948 </t>
   </si>
   <si>
@@ -1291,9 +1269,6 @@
     <t>126 </t>
   </si>
   <si>
-    <t>178 </t>
-  </si>
-  <si>
     <t>38 </t>
   </si>
   <si>
@@ -1339,9 +1314,6 @@
     <t>79 </t>
   </si>
   <si>
-    <t>117 </t>
-  </si>
-  <si>
     <t>21 </t>
   </si>
   <si>
@@ -1375,9 +1347,6 @@
     <t> Pi Kappa Alpha</t>
   </si>
   <si>
-    <t>97 </t>
-  </si>
-  <si>
     <t>3.030 </t>
   </si>
   <si>
@@ -1396,9 +1365,6 @@
     <t> Suspension/Rescission of University Registration 5/17/2019 –5/31/2023</t>
   </si>
   <si>
-    <t>91 </t>
-  </si>
-  <si>
     <t>2.736 </t>
   </si>
   <si>
@@ -1420,9 +1386,6 @@
     <t> Violation of University Rule 9/27/19 </t>
   </si>
   <si>
-    <t>17 </t>
-  </si>
-  <si>
     <t> 2.205</t>
   </si>
   <si>
@@ -1438,9 +1401,6 @@
     <t> CONDITIONAL STATUS</t>
   </si>
   <si>
-    <t>40 </t>
-  </si>
-  <si>
     <t>2.652 </t>
   </si>
   <si>
@@ -1450,9 +1410,6 @@
     <t>85 </t>
   </si>
   <si>
-    <t>123 </t>
-  </si>
-  <si>
     <t>18 </t>
   </si>
   <si>
@@ -1465,9 +1422,6 @@
     <t>68 </t>
   </si>
   <si>
-    <t>112 </t>
-  </si>
-  <si>
     <t>3.341 </t>
   </si>
   <si>
@@ -1480,9 +1434,6 @@
     <t> 1,207</t>
   </si>
   <si>
-    <t>133 </t>
-  </si>
-  <si>
     <t>2.511 </t>
   </si>
   <si>
@@ -1496,9 +1447,6 @@
   </si>
   <si>
     <t> 124</t>
-  </si>
-  <si>
-    <t>138 </t>
   </si>
   <si>
     <t>2.689 </t>
@@ -1576,12 +1524,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1597,7 +1551,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
@@ -1610,13 +1564,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1636,7 +1596,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1924,7 +1884,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1932,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0097E1-D37E-034D-AB37-8E16A69A5D8A}">
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3105,6 +3065,12 @@
         <v>20</v>
       </c>
       <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f>SUM(D2:D26)</f>
+        <v>2110</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3140,70 +3106,70 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{832295BC-76C8-9D49-AE0B-1D8DB2EEE5CA}">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="13" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3217,27 +3183,27 @@
       <c r="C2" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>243</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -3255,29 +3221,29 @@
         <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="3">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>131</v>
@@ -3298,29 +3264,29 @@
         <v>23</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>131</v>
@@ -3341,29 +3307,29 @@
         <v>98</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="D5" s="3">
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>131</v>
@@ -3384,13 +3350,13 @@
         <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>122</v>
@@ -3399,14 +3365,14 @@
         <v>122</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>131</v>
@@ -3423,233 +3389,231 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="14">
+        <v>59</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="I7" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="J7" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>131</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="17">
         <v>42822</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13" t="s">
+      <c r="D12" s="14">
+        <v>114</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -3659,11 +3623,9 @@
         <v>122</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>122</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>122</v>
       </c>
@@ -3684,7 +3646,7 @@
         <v>122</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M14" s="5">
         <v>40091</v>
@@ -3702,48 +3664,48 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="D15" s="3">
+        <v>168</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>131</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>21</v>
@@ -3759,9 +3721,7 @@
       <c r="C16" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>274</v>
-      </c>
+      <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>122</v>
       </c>
@@ -3782,7 +3742,7 @@
         <v>122</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -3808,17 +3768,15 @@
       <c r="C17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>122</v>
@@ -3831,7 +3789,7 @@
         <v>122</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>89</v>
@@ -3854,32 +3812,32 @@
         <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>266</v>
+        <v>292</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -3902,9 +3860,7 @@
       <c r="C19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>24</v>
       </c>
@@ -3925,7 +3881,7 @@
         <v>122</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M19" s="5">
         <v>42992</v>
@@ -3948,29 +3904,29 @@
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
+      </c>
+      <c r="D20" s="3">
+        <v>102</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>127</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>131</v>
@@ -3996,9 +3952,7 @@
       <c r="C21" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>122</v>
       </c>
@@ -4013,7 +3967,7 @@
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>122</v>
@@ -4034,32 +3988,32 @@
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="D22" s="3">
+        <v>122</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -4073,95 +4027,95 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="14">
+        <v>102</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" s="14" t="s">
         <v>131</v>
       </c>
       <c r="L23" s="3"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="16">
+      <c r="M23" s="14"/>
+      <c r="N23" s="17">
         <v>43035</v>
       </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="16">
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="17">
         <v>43343</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="13"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
@@ -4196,7 +4150,7 @@
         <v>125</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>125</v>
@@ -4221,29 +4175,29 @@
         <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="D27" s="3">
+        <v>72</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>131</v>
@@ -4264,32 +4218,32 @@
         <v>46</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="H28" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
         <v>122</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -4307,29 +4261,29 @@
         <v>47</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>329</v>
+        <v>318</v>
+      </c>
+      <c r="D29" s="3">
+        <v>28</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>122</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>131</v>
@@ -4350,29 +4304,29 @@
         <v>50</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>183</v>
+      <c r="D30" s="3">
+        <v>118</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>131</v>
@@ -4393,29 +4347,29 @@
         <v>54</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D31" s="3">
+        <v>103</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>131</v>
@@ -4428,7 +4382,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -4436,35 +4390,35 @@
         <v>58</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
+      </c>
+      <c r="D32" s="3">
+        <v>135</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>131</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
@@ -4483,13 +4437,13 @@
         <v>59</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
+      </c>
+      <c r="D33" s="3">
+        <v>25</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>122</v>
@@ -4498,14 +4452,14 @@
         <v>122</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>131</v>
@@ -4526,39 +4480,84 @@
         <v>60</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
+      </c>
+      <c r="D34" s="3">
+        <v>143</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>122</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <f>SUM(D2:D34)</f>
+        <v>1666</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="Q23:Q25"/>
-    <mergeCell ref="R23:R25"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="K23:K25"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N23:N25"/>
-    <mergeCell ref="O23:O25"/>
-    <mergeCell ref="P23:P25"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="S12:S13"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
@@ -4575,54 +4574,15 @@
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="Q12:Q13"/>
     <mergeCell ref="R12:R13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="Q23:Q25"/>
+    <mergeCell ref="R23:R25"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="K23:K25"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N23:N25"/>
+    <mergeCell ref="O23:O25"/>
+    <mergeCell ref="P23:P25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="acacia" display="https://www.lsu.edu/greeks/standards/org_conduct/index.php - acacia" xr:uid="{BB8902A7-B94B-F046-8E90-5169B7158FC1}"/>
@@ -4659,146 +4619,146 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071BED04-929E-6447-94E3-24229D88BC80}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="J1" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="S1" s="18" t="s">
-        <v>354</v>
+      <c r="S1" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="3">
+        <v>93</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>131</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="3">
+        <v>73</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3">
@@ -4815,33 +4775,33 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>238</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>303</v>
+        <v>372</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3">
@@ -4858,37 +4818,37 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>384</v>
+      <c r="D5" s="3">
+        <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>131</v>
@@ -4901,37 +4861,37 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>260</v>
+        <v>300</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>131</v>
@@ -4944,189 +4904,187 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="14">
+        <v>74</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="M9" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="G7" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="S9" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
+      </c>
+      <c r="D11" s="3">
+        <v>144</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>171</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>131</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -5135,7 +5093,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -5143,14 +5101,12 @@
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>122</v>
       </c>
@@ -5173,7 +5129,7 @@
         <v>122</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -5187,49 +5143,49 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>415</v>
+        <v>406</v>
+      </c>
+      <c r="D13" s="3">
+        <v>178</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -5242,9 +5198,7 @@
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>122</v>
       </c>
@@ -5267,7 +5221,7 @@
         <v>122</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -5276,12 +5230,12 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>122</v>
@@ -5289,9 +5243,7 @@
       <c r="C15" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>122</v>
       </c>
@@ -5314,7 +5266,7 @@
         <v>122</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -5328,32 +5280,32 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>131</v>
@@ -5366,22 +5318,20 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>122</v>
       </c>
@@ -5392,7 +5342,7 @@
         <v>122</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>122</v>
@@ -5404,7 +5354,7 @@
         <v>122</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -5421,29 +5371,29 @@
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>431</v>
+        <v>421</v>
+      </c>
+      <c r="D18" s="3">
+        <v>117</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>131</v>
@@ -5456,22 +5406,20 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>122</v>
       </c>
@@ -5509,29 +5457,29 @@
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D20" s="3">
         <v>126</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F20" s="3">
         <v>2.9060000000000001</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>131</v>
@@ -5544,43 +5492,43 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="B21" s="3">
         <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>443</v>
+        <v>253</v>
+      </c>
+      <c r="D21" s="3">
+        <v>97</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -5589,7 +5537,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
@@ -5602,9 +5550,7 @@
       <c r="C22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>122</v>
-      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>122</v>
       </c>
@@ -5612,20 +5558,20 @@
         <v>122</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>122</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -5634,78 +5580,78 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>35</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>453</v>
-      </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>376</v>
+      <c r="C23" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="14">
+        <v>91</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
@@ -5715,27 +5661,27 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>458</v>
+        <v>263</v>
+      </c>
+      <c r="D25" s="3">
+        <v>17</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -5745,7 +5691,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
@@ -5756,27 +5702,27 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>464</v>
+        <v>309</v>
+      </c>
+      <c r="D26" s="3">
+        <v>40</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>171</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -5797,29 +5743,29 @@
         <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>468</v>
+        <v>453</v>
+      </c>
+      <c r="D27" s="3">
+        <v>123</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -5829,7 +5775,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
@@ -5840,29 +5786,29 @@
         <v>44</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>473</v>
+        <v>457</v>
+      </c>
+      <c r="D28" s="3">
+        <v>112</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -5872,7 +5818,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
@@ -5883,32 +5829,32 @@
         <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>478</v>
+        <v>299</v>
+      </c>
+      <c r="D29" s="3">
+        <v>133</v>
       </c>
       <c r="E29" s="3">
         <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -5917,7 +5863,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
@@ -5947,7 +5893,7 @@
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>125</v>
@@ -5960,7 +5906,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -5968,71 +5914,41 @@
         <v>60</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C31" s="3">
         <v>98</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>484</v>
+      <c r="D31" s="3">
+        <v>138</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f>SUM(D2:D31)</f>
+        <v>1690</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="S23:S24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="O23:O24"/>
-    <mergeCell ref="P23:P24"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="R7:R8"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="G7:G8"/>
@@ -6041,12 +5957,48 @@
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="O23:O24"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="acacia" display="https://www.lsu.edu/greeks/standards/org_conduct/index.php - acacia" xr:uid="{8F13A0F4-38E4-E240-9CDA-102ED6B52DC4}"/>
@@ -6083,10 +6035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39313881-8F27-E24D-B6E3-D3FB6AE7C895}">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7276,6 +7228,12 @@
         <v>20</v>
       </c>
       <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f>SUM(D3:D26)</f>
+        <v>1730</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7311,10 +7269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94A6C492-29D7-0048-9AD5-3E615AB5A680}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8553,6 +8511,12 @@
         <v>1800</v>
       </c>
       <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f>SUM(D3:D27)</f>
+        <v>1928</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8589,10 +8553,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1167765-9EB7-5643-82C5-886E6D36CF3F}">
-  <dimension ref="A2:S28"/>
+  <dimension ref="A2:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9835,6 +9799,12 @@
       </c>
       <c r="J28" s="7">
         <v>1800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>SUM(D4:D28)</f>
+        <v>1740</v>
       </c>
     </row>
   </sheetData>
@@ -9872,10 +9842,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E6A7C3-E326-6542-B54E-241A0DE1DE4F}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11136,6 +11106,12 @@
       </c>
       <c r="J27" s="4">
         <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f>SUM(D3:D27)</f>
+        <v>1947</v>
       </c>
     </row>
   </sheetData>
@@ -11173,10 +11149,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A795C98-3894-4E4D-9B84-64532A61225A}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12490,6 +12466,12 @@
       </c>
       <c r="J28" s="4">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>SUM(D3:D28)</f>
+        <v>1659</v>
       </c>
     </row>
   </sheetData>
@@ -12528,13 +12510,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E42761B-BC6F-2245-8195-3E245445E568}">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -12928,46 +12913,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="20">
         <v>45</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="20">
         <v>63</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="20">
         <v>108</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="20">
         <v>9</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="20">
         <v>2.72</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="20">
         <v>2.9950000000000001</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="20">
         <v>2.8959999999999999</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4" t="s">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13020,250 +13005,250 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="20">
         <v>58</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="20">
         <v>107</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="20">
         <v>165</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="20">
         <v>41</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="20">
         <v>2.9140000000000001</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="20">
         <v>3.129</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="20">
         <v>3.056</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="21">
         <v>5000</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="22">
         <v>690</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="23">
         <v>42667</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
+      <c r="O11" s="20"/>
+      <c r="P11" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="4" t="s">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="20">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="F12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3" t="s">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="R12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="S12" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3" t="s">
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="R13" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="S13" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="20">
         <v>0</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="20">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="20">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="20">
         <v>2.8279999999999998</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="20">
         <v>2.8279999999999998</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="22">
         <v>183</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="4" t="s">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="B15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20">
         <v>11</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3" t="s">
+      <c r="F15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="23">
         <v>42992</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="23">
         <v>42992</v>
       </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="5">
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="23">
         <v>42992</v>
       </c>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
+      <c r="R15" s="20"/>
+      <c r="S15" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13680,46 +13665,46 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:19" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="20">
         <v>40</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="20">
         <v>79</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="20">
         <v>119</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="20">
         <v>28</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="20">
         <v>3.2330000000000001</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="20">
         <v>3.3149999999999999</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="20">
         <v>3.2869999999999999</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="22">
         <v>724</v>
       </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4" t="s">
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -13839,6 +13824,12 @@
       </c>
       <c r="J28" s="4">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f>SUM(D3:D28)</f>
+        <v>1878</v>
       </c>
     </row>
   </sheetData>
@@ -13877,10 +13868,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E04B555-2B94-5643-B9C3-A61E0EDE58F8}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14180,119 +14171,119 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>9</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>84</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>93</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>10</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="14">
         <v>2.7989999999999999</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="14">
         <v>2.9209999999999998</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <v>2.9079999999999999</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="16">
         <v>3025</v>
       </c>
       <c r="J7" s="15">
         <v>561</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="17">
         <v>42822</v>
       </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
       <c r="S7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="13"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="15"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="15"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -15270,13 +15261,20 @@
       </c>
       <c r="K31" s="3"/>
     </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f>SUM(D3:D31)</f>
+        <v>1659</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
     <mergeCell ref="S7:S10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="H7:H10"/>
@@ -15284,12 +15282,11 @@
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="M7:M10"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="acacia" display="https://www.lsu.edu/greeks/standards/org_conduct/index.php - acacia" xr:uid="{44976FCE-EDEC-2140-97D8-16676A588888}"/>
@@ -15326,10 +15323,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165BBD50-7B73-5D42-A518-3DFD69402E86}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15563,7 +15560,7 @@
       <c r="H5" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="12">
         <v>7344</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -15629,75 +15626,75 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="14">
         <v>27</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="14">
         <v>82</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>109</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>12</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="14" t="s">
         <v>125</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="17">
         <v>42822</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
       <c r="S7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
       <c r="S8" s="15"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -16194,50 +16191,50 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>43</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="14">
         <v>77</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="14">
         <v>120</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="14">
         <v>23</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="14" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="16">
+      <c r="M20" s="14"/>
+      <c r="N20" s="17">
         <v>43035</v>
       </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13" t="s">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14" t="s">
         <v>185</v>
       </c>
       <c r="S20" s="15" t="s">
@@ -16245,71 +16242,71 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
       <c r="L21" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="15"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>47</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="14">
         <v>95</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="14">
         <v>142</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="14">
         <v>27</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13" t="s">
+      <c r="I22" s="14"/>
+      <c r="J22" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="14" t="s">
         <v>125</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="16">
+      <c r="M22" s="14"/>
+      <c r="N22" s="17">
         <v>43021</v>
       </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="16">
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="17">
         <v>42960</v>
       </c>
       <c r="S22" s="15" t="s">
@@ -16317,49 +16314,49 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="16"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="17"/>
       <c r="S23" s="15"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
       <c r="L24" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="16"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="15"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
@@ -16706,30 +16703,37 @@
       </c>
       <c r="I32" s="3"/>
     </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f>SUM(D2:D32)</f>
+        <v>1957</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="O22:O24"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="S22:S24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
     <mergeCell ref="R20:R21"/>
     <mergeCell ref="S20:S21"/>
     <mergeCell ref="G20:G21"/>
@@ -16738,30 +16742,29 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="M20:M21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="S22:S24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="R22:R24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="acacia" display="https://www.lsu.edu/greeks/standards/org_conduct/index.php - acacia" xr:uid="{BFDAB6E6-C458-9149-B03C-0DA7FB78EB3B}"/>
